--- a/all-exposure-checks.xlsx
+++ b/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\ContactTracing-2020\GAEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142E9417-8584-4958-AA0D-76B890E42D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D454016-1F8E-465D-8C1B-3C594870EAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Android" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="data">Android!$C$9:$E$22</definedName>
+    <definedName name="data">Android!$C$9:$E$39</definedName>
     <definedName name="Json">Android!$A$4</definedName>
-    <definedName name="time">Android!$C$9:$C$22</definedName>
+    <definedName name="time">Android!$C$9:$C$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>timestamp</t>
   </si>
@@ -59,20 +59,34 @@
     <t>Time column is currently supported for UK ENG and FIN until end of 2020</t>
   </si>
   <si>
-    <t>Export Android JSON into A4</t>
+    <t>Sorted entries if time correct</t>
   </si>
   <si>
-    <t>Sorted entries if time correct</t>
+    <t>Koronavilkku history data</t>
+  </si>
+  <si>
+    <t>https://thl.fi/fi/web/hyvinvoinnin-ja-terveyden-edistamisen-johtaminen/ajankohtaista/koronan-vaikutukset-yhteiskuntaan-ja-palveluihin#Koronavilkkua</t>
+  </si>
+  <si>
+    <t>Export Android all-exposure-checks.json into A4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,18 +121,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -173,7 +191,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Notification k</a:t>
+              <a:t> notification k</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -213,7 +231,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12517103732297988"/>
+          <c:y val="0.19854367543665488"/>
+          <c:w val="0.84256843114483493"/>
+          <c:h val="0.76197521207885777"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -565,6 +593,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28155724019899092"/>
+          <c:y val="3.2589243072369545E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -671,104 +707,250 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Android!$B$27:$B$40</c:f>
+              <c:f>Android!$B$44:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>44088</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44089</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44090</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44091</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44092</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44093</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44094</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44095</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44096</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44097</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44098</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44099</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44100</c:v>
+                <c:pt idx="14">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Android!$C$27:$C$40</c:f>
+              <c:f>Android!$C$44:$C$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>242</c:v>
+                <c:pt idx="14">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -794,66 +976,132 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Android!$B$27:$B$40</c:f>
+              <c:f>Android!$B$44:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>44088</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44089</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44090</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44091</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44092</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44093</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44094</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44095</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44096</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44097</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44098</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44099</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44100</c:v>
+                <c:pt idx="14">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Android!$D$27:$D$40</c:f>
+              <c:f>Android!$D$44:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -886,9 +1134,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -920,7 +1186,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="d/m/;@" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2166,13 +2432,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>299356</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>146957</xdr:rowOff>
+      <xdr:rowOff>146956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>397328</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>16327</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2200,15 +2466,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>642257</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>16326</xdr:rowOff>
+      <xdr:colOff>462644</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>212271</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>239486</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2533,10 +2799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E4FBF2-530B-45FC-AB24-E83337470135}">
-  <dimension ref="A2:L41"/>
+  <dimension ref="A2:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2548,7 +2814,7 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2581,7 +2847,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="str">
-        <f>MID(Json,G9+12,H9-G9-13)</f>
+        <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
         <v>26. syyskuuta</v>
       </c>
       <c r="C9" s="5">
@@ -2589,11 +2855,11 @@
         <v>44100</v>
       </c>
       <c r="D9" s="2">
-        <f>VALUE(MID(Json,I9+10,J9-I9-10))</f>
+        <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
         <v>242</v>
       </c>
       <c r="E9" s="2">
-        <f>VALUE(MID(Json,K9+14,L9-J9-16))</f>
+        <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
         <v>0</v>
       </c>
       <c r="G9">
@@ -2601,41 +2867,41 @@
         <v>4</v>
       </c>
       <c r="H9">
-        <f>FIND("2020",Json,G9)</f>
+        <f t="shared" ref="H9:H22" si="3">FIND("2020",Json,G9)</f>
         <v>30</v>
       </c>
       <c r="I9">
-        <f>FIND("keyCount",Json,H9)</f>
+        <f t="shared" ref="I9:I22" si="4">FIND("keyCount",Json,H9)</f>
         <v>46</v>
       </c>
       <c r="J9">
-        <f>FIND(",""",Json,I9)</f>
+        <f t="shared" ref="J9:J22" si="5">FIND(",""",Json,I9)</f>
         <v>59</v>
       </c>
       <c r="K9">
-        <f>FIND("matchesCount",Json,J9)</f>
+        <f t="shared" ref="K9:K22" si="6">FIND("matchesCount",Json,J9)</f>
         <v>61</v>
       </c>
       <c r="L9">
-        <f>FIND(",""",Json,K9)</f>
+        <f t="shared" ref="L9:L22" si="7">FIND(",""",Json,K9)</f>
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="str">
-        <f>MID(Json,G10+12,H10-G10-13)</f>
+        <f t="shared" si="0"/>
         <v>25. syyskuuta</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" ref="C10:C22" si="0">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
+        <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
         <v>44099</v>
       </c>
       <c r="D10" s="2">
-        <f>VALUE(MID(Json,I10+10,J10-I10-10))</f>
+        <f t="shared" si="1"/>
         <v>217</v>
       </c>
       <c r="E10" s="2">
-        <f>VALUE(MID(Json,K10+14,L10-J10-16))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G10">
@@ -2643,751 +2909,1224 @@
         <v>159</v>
       </c>
       <c r="H10">
-        <f>FIND("2020",Json,G10)</f>
+        <f t="shared" si="3"/>
         <v>185</v>
       </c>
       <c r="I10">
-        <f>FIND("keyCount",Json,H10)</f>
+        <f t="shared" si="4"/>
         <v>201</v>
       </c>
       <c r="J10">
-        <f>FIND(",""",Json,I10)</f>
+        <f t="shared" si="5"/>
         <v>214</v>
       </c>
       <c r="K10">
-        <f>FIND("matchesCount",Json,J10)</f>
+        <f t="shared" si="6"/>
         <v>216</v>
       </c>
       <c r="L10">
-        <f>FIND(",""",Json,K10)</f>
+        <f t="shared" si="7"/>
         <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="str">
-        <f>MID(Json,G11+12,H11-G11-13)</f>
+        <f t="shared" si="0"/>
         <v>24. syyskuuta</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>44098</v>
       </c>
       <c r="D11" s="2">
-        <f>VALUE(MID(Json,I11+10,J11-I11-10))</f>
+        <f t="shared" si="1"/>
         <v>211</v>
       </c>
       <c r="E11" s="2">
-        <f>VALUE(MID(Json,K11+14,L11-J11-16))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>FIND("timestamp",Json,H10)</f>
+        <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
         <v>314</v>
       </c>
       <c r="H11">
-        <f>FIND("2020",Json,G11)</f>
+        <f t="shared" si="3"/>
         <v>340</v>
       </c>
       <c r="I11">
-        <f>FIND("keyCount",Json,H11)</f>
+        <f t="shared" si="4"/>
         <v>356</v>
       </c>
       <c r="J11">
-        <f>FIND(",""",Json,I11)</f>
+        <f t="shared" si="5"/>
         <v>369</v>
       </c>
       <c r="K11">
-        <f>FIND("matchesCount",Json,J11)</f>
+        <f t="shared" si="6"/>
         <v>371</v>
       </c>
       <c r="L11">
-        <f>FIND(",""",Json,K11)</f>
+        <f t="shared" si="7"/>
         <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="str">
-        <f>MID(Json,G12+12,H12-G12-13)</f>
+        <f t="shared" si="0"/>
         <v>23. syyskuuta</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>44097</v>
       </c>
       <c r="D12" s="2">
-        <f>VALUE(MID(Json,I12+10,J12-I12-10))</f>
+        <f t="shared" si="1"/>
         <v>189</v>
       </c>
       <c r="E12" s="2">
-        <f>VALUE(MID(Json,K12+14,L12-J12-16))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>FIND("timestamp",Json,H11)</f>
+        <f t="shared" si="9"/>
         <v>469</v>
       </c>
       <c r="H12">
-        <f>FIND("2020",Json,G12)</f>
+        <f t="shared" si="3"/>
         <v>495</v>
       </c>
       <c r="I12">
-        <f>FIND("keyCount",Json,H12)</f>
+        <f t="shared" si="4"/>
         <v>511</v>
       </c>
       <c r="J12">
-        <f>FIND(",""",Json,I12)</f>
+        <f t="shared" si="5"/>
         <v>524</v>
       </c>
       <c r="K12">
-        <f>FIND("matchesCount",Json,J12)</f>
+        <f t="shared" si="6"/>
         <v>526</v>
       </c>
       <c r="L12">
-        <f>FIND(",""",Json,K12)</f>
+        <f t="shared" si="7"/>
         <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="str">
-        <f>MID(Json,G13+12,H13-G13-13)</f>
+        <f t="shared" si="0"/>
         <v>22. syyskuuta</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>44096</v>
       </c>
       <c r="D13" s="2">
-        <f>VALUE(MID(Json,I13+10,J13-I13-10))</f>
+        <f t="shared" si="1"/>
         <v>311</v>
       </c>
       <c r="E13" s="2">
-        <f>VALUE(MID(Json,K13+14,L13-J13-16))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>FIND("timestamp",Json,H12)</f>
+        <f t="shared" si="9"/>
         <v>624</v>
       </c>
       <c r="H13">
-        <f>FIND("2020",Json,G13)</f>
+        <f t="shared" si="3"/>
         <v>650</v>
       </c>
       <c r="I13">
-        <f>FIND("keyCount",Json,H13)</f>
+        <f t="shared" si="4"/>
         <v>666</v>
       </c>
       <c r="J13">
-        <f>FIND(",""",Json,I13)</f>
+        <f t="shared" si="5"/>
         <v>679</v>
       </c>
       <c r="K13">
-        <f>FIND("matchesCount",Json,J13)</f>
+        <f t="shared" si="6"/>
         <v>681</v>
       </c>
       <c r="L13">
-        <f>FIND(",""",Json,K13)</f>
+        <f t="shared" si="7"/>
         <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="str">
-        <f>MID(Json,G14+12,H14-G14-13)</f>
+        <f t="shared" si="0"/>
         <v>21. syyskuuta</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>44095</v>
       </c>
       <c r="D14" s="2">
-        <f>VALUE(MID(Json,I14+10,J14-I14-10))</f>
+        <f t="shared" si="1"/>
         <v>157</v>
       </c>
       <c r="E14" s="2">
-        <f>VALUE(MID(Json,K14+14,L14-J14-16))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>FIND("timestamp",Json,H13)</f>
+        <f t="shared" si="9"/>
         <v>779</v>
       </c>
       <c r="H14">
-        <f>FIND("2020",Json,G14)</f>
+        <f t="shared" si="3"/>
         <v>805</v>
       </c>
       <c r="I14">
-        <f>FIND("keyCount",Json,H14)</f>
+        <f t="shared" si="4"/>
         <v>821</v>
       </c>
       <c r="J14">
-        <f>FIND(",""",Json,I14)</f>
+        <f t="shared" si="5"/>
         <v>834</v>
       </c>
       <c r="K14">
-        <f>FIND("matchesCount",Json,J14)</f>
+        <f t="shared" si="6"/>
         <v>836</v>
       </c>
       <c r="L14">
-        <f>FIND(",""",Json,K14)</f>
+        <f t="shared" si="7"/>
         <v>851</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="str">
-        <f>MID(Json,G15+12,H15-G15-13)</f>
+        <f t="shared" si="0"/>
         <v>20. syyskuuta</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>44094</v>
       </c>
       <c r="D15" s="2">
-        <f>VALUE(MID(Json,I15+10,J15-I15-10))</f>
+        <f t="shared" si="1"/>
         <v>202</v>
       </c>
       <c r="E15" s="2">
-        <f>VALUE(MID(Json,K15+14,L15-J15-16))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>FIND("timestamp",Json,H14)</f>
+        <f t="shared" si="9"/>
         <v>934</v>
       </c>
       <c r="H15">
-        <f>FIND("2020",Json,G15)</f>
+        <f t="shared" si="3"/>
         <v>960</v>
       </c>
       <c r="I15">
-        <f>FIND("keyCount",Json,H15)</f>
+        <f t="shared" si="4"/>
         <v>977</v>
       </c>
       <c r="J15">
-        <f>FIND(",""",Json,I15)</f>
+        <f t="shared" si="5"/>
         <v>990</v>
       </c>
       <c r="K15">
-        <f>FIND("matchesCount",Json,J15)</f>
+        <f t="shared" si="6"/>
         <v>992</v>
       </c>
       <c r="L15">
-        <f>FIND(",""",Json,K15)</f>
+        <f t="shared" si="7"/>
         <v>1007</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="str">
-        <f>MID(Json,G16+12,H16-G16-13)</f>
+        <f t="shared" si="0"/>
         <v>19. syyskuuta</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>44093</v>
       </c>
       <c r="D16" s="2">
-        <f>VALUE(MID(Json,I16+10,J16-I16-10))</f>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="E16" s="2">
-        <f>VALUE(MID(Json,K16+14,L16-J16-16))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f>FIND("timestamp",Json,H15)</f>
+        <f t="shared" si="9"/>
         <v>1090</v>
       </c>
       <c r="H16">
-        <f>FIND("2020",Json,G16)</f>
+        <f t="shared" si="3"/>
         <v>1116</v>
       </c>
       <c r="I16">
-        <f>FIND("keyCount",Json,H16)</f>
+        <f t="shared" si="4"/>
         <v>1133</v>
       </c>
       <c r="J16">
-        <f>FIND(",""",Json,I16)</f>
+        <f t="shared" si="5"/>
         <v>1146</v>
       </c>
       <c r="K16">
-        <f>FIND("matchesCount",Json,J16)</f>
+        <f t="shared" si="6"/>
         <v>1148</v>
       </c>
       <c r="L16">
-        <f>FIND(",""",Json,K16)</f>
+        <f t="shared" si="7"/>
         <v>1163</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="str">
-        <f>MID(Json,G17+12,H17-G17-13)</f>
+        <f t="shared" si="0"/>
         <v>18. syyskuuta</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>44092</v>
       </c>
       <c r="D17" s="2">
-        <f>VALUE(MID(Json,I17+10,J17-I17-10))</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="E17" s="2">
-        <f>VALUE(MID(Json,K17+14,L17-J17-16))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f>FIND("timestamp",Json,H16)</f>
+        <f t="shared" si="9"/>
         <v>1247</v>
       </c>
       <c r="H17">
-        <f>FIND("2020",Json,G17)</f>
+        <f t="shared" si="3"/>
         <v>1273</v>
       </c>
       <c r="I17">
-        <f>FIND("keyCount",Json,H17)</f>
+        <f t="shared" si="4"/>
         <v>1290</v>
       </c>
       <c r="J17">
-        <f>FIND(",""",Json,I17)</f>
+        <f t="shared" si="5"/>
         <v>1302</v>
       </c>
       <c r="K17">
-        <f>FIND("matchesCount",Json,J17)</f>
+        <f t="shared" si="6"/>
         <v>1304</v>
       </c>
       <c r="L17">
-        <f>FIND(",""",Json,K17)</f>
+        <f t="shared" si="7"/>
         <v>1319</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="str">
-        <f>MID(Json,G18+12,H18-G18-13)</f>
+        <f t="shared" si="0"/>
         <v>17. syyskuuta</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>44091</v>
       </c>
       <c r="D18" s="2">
-        <f>VALUE(MID(Json,I18+10,J18-I18-10))</f>
+        <f t="shared" si="1"/>
         <v>137</v>
       </c>
       <c r="E18" s="2">
-        <f>VALUE(MID(Json,K18+14,L18-J18-16))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18">
-        <f>FIND("timestamp",Json,H17)</f>
+        <f t="shared" si="9"/>
         <v>1402</v>
       </c>
       <c r="H18">
-        <f>FIND("2020",Json,G18)</f>
+        <f t="shared" si="3"/>
         <v>1428</v>
       </c>
       <c r="I18">
-        <f>FIND("keyCount",Json,H18)</f>
+        <f t="shared" si="4"/>
         <v>1445</v>
       </c>
       <c r="J18">
-        <f>FIND(",""",Json,I18)</f>
+        <f t="shared" si="5"/>
         <v>1458</v>
       </c>
       <c r="K18">
-        <f>FIND("matchesCount",Json,J18)</f>
+        <f t="shared" si="6"/>
         <v>1460</v>
       </c>
       <c r="L18">
-        <f>FIND(",""",Json,K18)</f>
+        <f t="shared" si="7"/>
         <v>1475</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="str">
-        <f>MID(Json,G19+12,H19-G19-13)</f>
+        <f t="shared" si="0"/>
         <v>16. syyskuuta</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>44090</v>
       </c>
       <c r="D19" s="2">
-        <f>VALUE(MID(Json,I19+10,J19-I19-10))</f>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="E19" s="2">
-        <f>VALUE(MID(Json,K19+14,L19-J19-16))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <f>FIND("timestamp",Json,H18)</f>
+        <f t="shared" si="9"/>
         <v>1558</v>
       </c>
       <c r="H19">
-        <f>FIND("2020",Json,G19)</f>
+        <f t="shared" si="3"/>
         <v>1584</v>
       </c>
       <c r="I19">
-        <f>FIND("keyCount",Json,H19)</f>
+        <f t="shared" si="4"/>
         <v>1601</v>
       </c>
       <c r="J19">
-        <f>FIND(",""",Json,I19)</f>
+        <f t="shared" si="5"/>
         <v>1614</v>
       </c>
       <c r="K19">
-        <f>FIND("matchesCount",Json,J19)</f>
+        <f t="shared" si="6"/>
         <v>1616</v>
       </c>
       <c r="L19">
-        <f>FIND(",""",Json,K19)</f>
+        <f t="shared" si="7"/>
         <v>1631</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="str">
-        <f>MID(Json,G20+12,H20-G20-13)</f>
+        <f t="shared" si="0"/>
         <v>15. syyskuuta</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>44089</v>
       </c>
       <c r="D20" s="2">
-        <f>VALUE(MID(Json,I20+10,J20-I20-10))</f>
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
       <c r="E20" s="2">
-        <f>VALUE(MID(Json,K20+14,L20-J20-16))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20">
-        <f>FIND("timestamp",Json,H19)</f>
+        <f t="shared" si="9"/>
         <v>1716</v>
       </c>
       <c r="H20">
-        <f>FIND("2020",Json,G20)</f>
+        <f t="shared" si="3"/>
         <v>1742</v>
       </c>
       <c r="I20">
-        <f>FIND("keyCount",Json,H20)</f>
+        <f t="shared" si="4"/>
         <v>1759</v>
       </c>
       <c r="J20">
-        <f>FIND(",""",Json,I20)</f>
+        <f t="shared" si="5"/>
         <v>1772</v>
       </c>
       <c r="K20">
-        <f>FIND("matchesCount",Json,J20)</f>
+        <f t="shared" si="6"/>
         <v>1774</v>
       </c>
       <c r="L20">
-        <f>FIND(",""",Json,K20)</f>
+        <f t="shared" si="7"/>
         <v>1789</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="str">
-        <f>MID(Json,G21+12,H21-G21-13)</f>
+        <f t="shared" si="0"/>
         <v>14. syyskuuta</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>44088</v>
       </c>
       <c r="D21" s="2">
-        <f>VALUE(MID(Json,I21+10,J21-I21-10))</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="E21" s="2">
-        <f>VALUE(MID(Json,K21+14,L21-J21-16))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f>FIND("timestamp",Json,H20)</f>
+        <f t="shared" si="9"/>
         <v>1873</v>
       </c>
       <c r="H21">
-        <f>FIND("2020",Json,G21)</f>
+        <f t="shared" si="3"/>
         <v>1899</v>
       </c>
       <c r="I21">
-        <f>FIND("keyCount",Json,H21)</f>
+        <f t="shared" si="4"/>
         <v>1916</v>
       </c>
       <c r="J21">
-        <f>FIND(",""",Json,I21)</f>
+        <f t="shared" si="5"/>
         <v>1928</v>
       </c>
       <c r="K21">
-        <f>FIND("matchesCount",Json,J21)</f>
+        <f t="shared" si="6"/>
         <v>1930</v>
       </c>
       <c r="L21">
-        <f>FIND(",""",Json,K21)</f>
+        <f t="shared" si="7"/>
         <v>1945</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="str">
-        <f>MID(Json,G22+12,H22-G22-13)</f>
+        <f t="shared" si="0"/>
         <v>13. syyskuuta</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>44087</v>
       </c>
       <c r="D22" s="2">
-        <f>VALUE(MID(Json,I22+10,J22-I22-10))</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="E22" s="2">
-        <f>VALUE(MID(Json,K22+14,L22-J22-16))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f>FIND("timestamp",Json,H21)</f>
+        <f t="shared" si="9"/>
         <v>2029</v>
       </c>
       <c r="H22">
-        <f>FIND("2020",Json,G22)</f>
+        <f t="shared" si="3"/>
         <v>2055</v>
       </c>
       <c r="I22">
-        <f>FIND("keyCount",Json,H22)</f>
+        <f t="shared" si="4"/>
         <v>2072</v>
       </c>
       <c r="J22">
-        <f>FIND(",""",Json,I22)</f>
+        <f t="shared" si="5"/>
         <v>2084</v>
       </c>
       <c r="K22">
-        <f>FIND("matchesCount",Json,J22)</f>
+        <f t="shared" si="6"/>
         <v>2086</v>
       </c>
       <c r="L22">
-        <f>FIND(",""",Json,K22)</f>
+        <f t="shared" si="7"/>
         <v>2101</v>
       </c>
     </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5">
+        <v>44094</v>
+      </c>
+      <c r="D23" s="2">
+        <v>202</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
+      <c r="C24" s="5">
+        <v>44093</v>
+      </c>
+      <c r="D24" s="2">
+        <v>190</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C25" s="5">
+        <v>44092</v>
+      </c>
+      <c r="D25" s="2">
+        <v>82</v>
+      </c>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5">
+        <v>44091</v>
+      </c>
+      <c r="D26" s="2">
+        <v>137</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C27" s="5">
+        <v>44090</v>
+      </c>
+      <c r="D27" s="2">
+        <v>125</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C28" s="5">
+        <v>44089</v>
+      </c>
+      <c r="D28" s="2">
+        <v>136</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C29" s="5">
+        <v>44088</v>
+      </c>
+      <c r="D29" s="2">
+        <v>67</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C30" s="5">
+        <v>44087</v>
+      </c>
+      <c r="D30" s="2">
+        <v>87</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C31" s="5">
+        <v>44086</v>
+      </c>
+      <c r="D31" s="2">
+        <v>46</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C32" s="5">
+        <v>44085</v>
+      </c>
+      <c r="D32" s="2">
+        <v>70</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C33" s="5">
+        <v>44084</v>
+      </c>
+      <c r="D33" s="2">
+        <v>75</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C34" s="5">
+        <v>44083</v>
+      </c>
+      <c r="D34" s="2">
+        <v>101</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C35" s="5">
+        <v>44082</v>
+      </c>
+      <c r="D35" s="2">
+        <v>56</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="5">
+        <v>44081</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C37" s="5">
+        <v>44080</v>
+      </c>
+      <c r="D37" s="2">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C38" s="5">
+        <v>44078</v>
+      </c>
+      <c r="D38" s="2">
+        <v>15</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C39" s="5">
+        <v>44077</v>
+      </c>
+      <c r="D39" s="2">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B43" s="3">
+        <f ca="1">NOW()+1</f>
+        <v>44101.904930902776</v>
+      </c>
+      <c r="C43" t="s">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D43" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="3">
-        <f>_xlfn.MINIFS(time,time,"&gt;"&amp;B26)</f>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B44" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B43)</f>
+        <v>44100</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:C79" ca="1" si="10">VLOOKUP(B44,data,2,FALSE)</f>
+        <v>242</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D56" ca="1" si="11">VLOOKUP(B44,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B45" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B44)</f>
+        <v>44099</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="10"/>
+        <v>217</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B46" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B45)</f>
+        <v>44098</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="10"/>
+        <v>211</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B47" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B46)</f>
+        <v>44097</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="10"/>
+        <v>189</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B48" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B47)</f>
+        <v>44096</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="10"/>
+        <v>311</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B49" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B48)</f>
+        <v>44095</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="10"/>
+        <v>157</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B50" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B49)</f>
+        <v>44094</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="10"/>
+        <v>202</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B51" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B50)</f>
+        <v>44093</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="10"/>
+        <v>190</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B52" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B51)</f>
+        <v>44092</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B53" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B52)</f>
+        <v>44091</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="10"/>
+        <v>137</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B54" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B53)</f>
+        <v>44090</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B55" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B54)</f>
+        <v>44089</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="10"/>
+        <v>136</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B56" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B55)</f>
+        <v>44088</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="10"/>
+        <v>67</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B57" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B56)</f>
         <v>44087</v>
       </c>
-      <c r="C27">
-        <f>VLOOKUP(B27,data,2,FALSE)</f>
+      <c r="C57">
+        <f t="shared" ca="1" si="10"/>
         <v>87</v>
       </c>
-      <c r="D27">
-        <f>VLOOKUP(B27,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="3">
-        <f>_xlfn.MINIFS(time,time,"&gt;"&amp;B27)</f>
-        <v>44088</v>
-      </c>
-      <c r="C28">
-        <f>VLOOKUP(B28,data,2,FALSE)</f>
-        <v>67</v>
-      </c>
-      <c r="D28">
-        <f>VLOOKUP(B28,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B29" s="3">
-        <f>_xlfn.MINIFS(time,time,"&gt;"&amp;B28)</f>
-        <v>44089</v>
-      </c>
-      <c r="C29">
-        <f>VLOOKUP(B29,data,2,FALSE)</f>
-        <v>136</v>
-      </c>
-      <c r="D29">
-        <f>VLOOKUP(B29,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B30" s="3">
-        <f>_xlfn.MINIFS(time,time,"&gt;"&amp;B29)</f>
-        <v>44090</v>
-      </c>
-      <c r="C30">
-        <f>VLOOKUP(B30,data,2,FALSE)</f>
-        <v>125</v>
-      </c>
-      <c r="D30">
-        <f>VLOOKUP(B30,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B31" s="3">
-        <f>_xlfn.MINIFS(time,time,"&gt;"&amp;B30)</f>
-        <v>44091</v>
-      </c>
-      <c r="C31">
-        <f>VLOOKUP(B31,data,2,FALSE)</f>
-        <v>137</v>
-      </c>
-      <c r="D31">
-        <f>VLOOKUP(B31,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B32" s="3">
-        <f>_xlfn.MINIFS(time,time,"&gt;"&amp;B31)</f>
-        <v>44092</v>
-      </c>
-      <c r="C32">
-        <f>VLOOKUP(B32,data,2,FALSE)</f>
-        <v>82</v>
-      </c>
-      <c r="D32">
-        <f>VLOOKUP(B32,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="3">
-        <f>_xlfn.MINIFS(time,time,"&gt;"&amp;B32)</f>
-        <v>44093</v>
-      </c>
-      <c r="C33">
-        <f>VLOOKUP(B33,data,2,FALSE)</f>
-        <v>190</v>
-      </c>
-      <c r="D33">
-        <f>VLOOKUP(B33,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="3">
-        <f>_xlfn.MINIFS(time,time,"&gt;"&amp;B33)</f>
-        <v>44094</v>
-      </c>
-      <c r="C34">
-        <f>VLOOKUP(B34,data,2,FALSE)</f>
-        <v>202</v>
-      </c>
-      <c r="D34">
-        <f>VLOOKUP(B34,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="3">
-        <f>_xlfn.MINIFS(time,time,"&gt;"&amp;B34)</f>
-        <v>44095</v>
-      </c>
-      <c r="C35">
-        <f>VLOOKUP(B35,data,2,FALSE)</f>
-        <v>157</v>
-      </c>
-      <c r="D35">
-        <f>VLOOKUP(B35,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" s="3">
-        <f>_xlfn.MINIFS(time,time,"&gt;"&amp;B35)</f>
-        <v>44096</v>
-      </c>
-      <c r="C36">
-        <f>VLOOKUP(B36,data,2,FALSE)</f>
-        <v>311</v>
-      </c>
-      <c r="D36">
-        <f>VLOOKUP(B36,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="3">
-        <f>_xlfn.MINIFS(time,time,"&gt;"&amp;B36)</f>
-        <v>44097</v>
-      </c>
-      <c r="C37">
-        <f>VLOOKUP(B37,data,2,FALSE)</f>
-        <v>189</v>
-      </c>
-      <c r="D37">
-        <f>VLOOKUP(B37,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="3">
-        <f>_xlfn.MINIFS(time,time,"&gt;"&amp;B37)</f>
-        <v>44098</v>
-      </c>
-      <c r="C38">
-        <f>VLOOKUP(B38,data,2,FALSE)</f>
-        <v>211</v>
-      </c>
-      <c r="D38">
-        <f>VLOOKUP(B38,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" s="3">
-        <f>_xlfn.MINIFS(time,time,"&gt;"&amp;B38)</f>
-        <v>44099</v>
-      </c>
-      <c r="C39">
-        <f>VLOOKUP(B39,data,2,FALSE)</f>
-        <v>217</v>
-      </c>
-      <c r="D39">
-        <f>VLOOKUP(B39,data,3,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="3">
-        <f>_xlfn.MINIFS(time,time,"&gt;"&amp;B39)</f>
-        <v>44100</v>
-      </c>
-      <c r="C40">
-        <f>VLOOKUP(B40,data,2,FALSE)</f>
-        <v>242</v>
-      </c>
-      <c r="D40">
-        <f>VLOOKUP(B40,data,3,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C41"/>
+      <c r="D57">
+        <f t="shared" ref="D57" ca="1" si="12">VLOOKUP(B57,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B58" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B57)</f>
+        <v>44086</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="10"/>
+        <v>46</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ref="D58:D64" ca="1" si="13">VLOOKUP(B58,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B59" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B58)</f>
+        <v>44085</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B60" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B59)</f>
+        <v>44084</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B61" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B60)</f>
+        <v>44083</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="10"/>
+        <v>101</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B62" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B61)</f>
+        <v>44082</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B63" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B62)</f>
+        <v>44081</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B64" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B63)</f>
+        <v>44080</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B65" s="3">
+        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B64)</f>
+        <v>44078</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ref="D65:D79" ca="1" si="14">VLOOKUP(B65,data,3,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B66" s="3">
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B65),1.8202)</f>
+        <v>44077</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B67" s="3">
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B66),44077)</f>
+        <v>44077</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B68" s="3">
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B67),44077)</f>
+        <v>44077</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B69" s="3">
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B68),44077)</f>
+        <v>44077</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="7"/>
+      <c r="B70" s="3">
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B69),44077)</f>
+        <v>44077</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3">
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B70),44077)</f>
+        <v>44077</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B72" s="3">
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B71),44077)</f>
+        <v>44077</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B73" s="3">
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B72),44077)</f>
+        <v>44077</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B74" s="3">
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B73),44077)</f>
+        <v>44077</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B75" s="3">
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B74),44077)</f>
+        <v>44077</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B76" s="3">
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B75),44077)</f>
+        <v>44077</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B77" s="3">
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B76),44077)</f>
+        <v>44077</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B78" s="3">
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B77),44077)</f>
+        <v>44077</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B79" s="3">
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B78),44077)</f>
+        <v>44077</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:E22">
-    <sortCondition ref="A9:A22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C23:D35">
+    <sortCondition descending="1" ref="C23:C35"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="A36" r:id="rId1" location="Koronavilkkua" display="https://thl.fi/fi/web/hyvinvoinnin-ja-terveyden-edistamisen-johtaminen/ajankohtaista/koronan-vaikutukset-yhteiskuntaan-ja-palveluihin - Koronavilkkua" xr:uid="{F06E6CD0-5429-431D-B74B-547C41718C4B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/all-exposure-checks.xlsx
+++ b/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\ContactTracing-2020\GAEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D454016-1F8E-465D-8C1B-3C594870EAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800DDA11-F9B6-4EE7-90FC-3A5388C963CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -2801,9 +2801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E4FBF2-530B-45FC-AB24-E83337470135}">
   <dimension ref="A2:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3603,7 +3601,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B43" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44101.904930902776</v>
+        <v>44101.905417361108</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>

--- a/all-exposure-checks.xlsx
+++ b/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\ContactTracing-2020\GAEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800DDA11-F9B6-4EE7-90FC-3A5388C963CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB21955-3179-4830-8488-4139A8D3227F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>matchesCount</t>
   </si>
   <si>
-    <t>[{"timestamp":"26. syyskuuta 2020 klo 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25. syyskuuta 2020 klo 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24. syyskuuta 2020 klo 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23. syyskuuta 2020 klo 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22. syyskuuta 2020 klo 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21. syyskuuta 2020 klo 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20. syyskuuta 2020 klo 11.09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="},{"timestamp":"19. syyskuuta 2020 klo 10.50","keyCount":190,"matchesCount":0,"appName":"Koronavilkku","hash":"wQ25zYYr\/T3LDtbukS3OYyUSNBYzmsEMqI3tDEx+GdY="},{"timestamp":"18. syyskuuta 2020 klo 10.37","keyCount":82,"matchesCount":0,"appName":"Koronavilkku","hash":"LxnzOI42gpmBHhNssMRQgJbJyyVz6j95FgbhcEhslFE="},{"timestamp":"17. syyskuuta 2020 klo 10.36","keyCount":137,"matchesCount":0,"appName":"Koronavilkku","hash":"nPOu6VJOVmdCS0JgyedgK1KtW4rxnqzJUGhlNwGuOV4="},{"timestamp":"16. syyskuuta 2020 klo 10.32","keyCount":125,"matchesCount":0,"appName":"Koronavilkku","hash":"L5x\/yuwZx1S3i2n0\/9FRe4HclDlgucBDfy5Or56ZchQ="},{"timestamp":"15. syyskuuta 2020 klo 10.28","keyCount":136,"matchesCount":0,"appName":"Koronavilkku","hash":"op7f5yD\/eSrwkpUHdNNBhVmT48knZIc26Jzt8vGL3JA="},{"timestamp":"14. syyskuuta 2020 klo 10.26","keyCount":67,"matchesCount":0,"appName":"Koronavilkku","hash":"vIEKsogtvkNLwDVfjkgES\/2vVVF0c16tzUm34F9Dse4="},{"timestamp":"13. syyskuuta 2020 klo 10.22","keyCount":87,"matchesCount":0,"appName":"Koronavilkku","hash":"361cWfGKKo4KQRNrZy3CtjvAmySVn72Z3X1Sx903ClE="},{"timestamp":"12. syyskuuta 2020 klo 10.14","keyCount":46,"matchesCount":0,"appName":"Koronavilkku","hash":"eHQdknWekwuG+QhjqWFwr6Y9WV2zzJsq\/GpWtMb64n4="},{"timestamp":"11. syyskuuta 2020 klo 10.12","keyCount":70,"matchesCount":0,"appName":"Koronavilkku","hash":"Llwme0uzt1losTjyXkYelctwGHIM\/16sRNCj2n\/8+9I="},{"timestamp":"10. syyskuuta 2020 klo 10.10","keyCount":75,"matchesCount":0,"appName":"Koronavilkku","hash":"CPHlw+3fw1WYDenvGmJmyeJFbGpMfdgKNsQCX70b9Jo="}]</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Export Android all-exposure-checks.json into A4</t>
+  </si>
+  <si>
+    <t>[{"timestamp":"27 September 2020, 08:05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 08:01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 08:00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 07:19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 07:15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 07:13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 07:11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20 September 2020, 11:09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="},{"timestamp":"19 September 2020, 10:50","keyCount":190,"matchesCount":0,"appName":"Koronavilkku","hash":"wQ25zYYr\/T3LDtbukS3OYyUSNBYzmsEMqI3tDEx+GdY="},{"timestamp":"18 September 2020, 10:37","keyCount":82,"matchesCount":0,"appName":"Koronavilkku","hash":"LxnzOI42gpmBHhNssMRQgJbJyyVz6j95FgbhcEhslFE="},{"timestamp":"17 September 2020, 10:36","keyCount":137,"matchesCount":0,"appName":"Koronavilkku","hash":"nPOu6VJOVmdCS0JgyedgK1KtW4rxnqzJUGhlNwGuOV4="},{"timestamp":"16 September 2020, 10:32","keyCount":125,"matchesCount":0,"appName":"Koronavilkku","hash":"L5x\/yuwZx1S3i2n0\/9FRe4HclDlgucBDfy5Or56ZchQ="},{"timestamp":"15 September 2020, 10:28","keyCount":136,"matchesCount":0,"appName":"Koronavilkku","hash":"op7f5yD\/eSrwkpUHdNNBhVmT48knZIc26Jzt8vGL3JA="},{"timestamp":"14 September 2020, 10:26","keyCount":67,"matchesCount":0,"appName":"Koronavilkku","hash":"vIEKsogtvkNLwDVfjkgES\/2vVVF0c16tzUm34F9Dse4="},{"timestamp":"13 September 2020, 10:22","keyCount":87,"matchesCount":0,"appName":"Koronavilkku","hash":"361cWfGKKo4KQRNrZy3CtjvAmySVn72Z3X1Sx903ClE="},{"timestamp":"12 September 2020, 10:14","keyCount":46,"matchesCount":0,"appName":"Koronavilkku","hash":"eHQdknWekwuG+QhjqWFwr6Y9WV2zzJsq\/GpWtMb64n4="},{"timestamp":"11 September 2020, 10:12","keyCount":70,"matchesCount":0,"appName":"Koronavilkku","hash":"Llwme0uzt1losTjyXkYelctwGHIM\/16sRNCj2n\/8+9I="}]</t>
   </si>
 </sst>
 </file>
@@ -276,46 +276,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>26. syyskuuta</c:v>
+                  <c:v>27 September</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25. syyskuuta</c:v>
+                  <c:v>26 September</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24. syyskuuta</c:v>
+                  <c:v>25 September</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23. syyskuuta</c:v>
+                  <c:v>24 September</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22. syyskuuta</c:v>
+                  <c:v>23 September</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21. syyskuuta</c:v>
+                  <c:v>22 September</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20. syyskuuta</c:v>
+                  <c:v>21 September</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19. syyskuuta</c:v>
+                  <c:v>20 September</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18. syyskuuta</c:v>
+                  <c:v>19 September</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17. syyskuuta</c:v>
+                  <c:v>18 September</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16. syyskuuta</c:v>
+                  <c:v>17 September</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15. syyskuuta</c:v>
+                  <c:v>16 September</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14. syyskuuta</c:v>
+                  <c:v>15 September</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13. syyskuuta</c:v>
+                  <c:v>14 September</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -327,46 +327,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,12 +582,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Exposure notification key</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> count #koronavilkku</a:t>
+              <a:t>Uusien päiväavainten lukumäärä #koronavilkku</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -597,8 +593,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.28155724019899092"/>
-          <c:y val="3.2589243072369545E-2"/>
+          <c:x val="0.22917176900299105"/>
+          <c:y val="3.2589121042282905E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -633,23 +629,36 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -728,73 +737,73 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44077</c:v>
@@ -845,73 +854,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>5</c:v>
@@ -955,214 +964,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-85F9-4F5C-93D0-3CDCB7678268}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Android!$B$44:$B$79</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>44100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44099</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44098</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44097</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44096</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44095</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44094</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44093</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44092</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44091</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44090</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44089</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44088</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44087</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44086</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44085</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44084</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44083</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44082</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44081</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44080</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44077</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Android!$D$44:$D$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-85F9-4F5C-93D0-3CDCB7678268}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1174,11 +979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="377991648"/>
         <c:axId val="377992304"/>
-      </c:barChart>
+      </c:lineChart>
       <c:dateAx>
         <c:axId val="377991648"/>
         <c:scaling>
@@ -2430,15 +2235,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>299356</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>146956</xdr:rowOff>
+      <xdr:colOff>92527</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>397328</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>16327</xdr:rowOff>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>141512</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2465,16 +2270,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>462644</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
+      <xdr:rowOff>81644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>239486</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>87087</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2801,7 +2606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E4FBF2-530B-45FC-AB24-E83337470135}">
   <dimension ref="A2:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2812,18 +2619,18 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
@@ -2831,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>1</v>
@@ -2846,15 +2653,15 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>26. syyskuuta</v>
+        <v>27 September</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -2866,121 +2673,121 @@
       </c>
       <c r="H9">
         <f t="shared" ref="H9:H22" si="3">FIND("2020",Json,G9)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I22" si="4">FIND("keyCount",Json,H9)</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9:J22" si="5">FIND(",""",Json,I9)</f>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K22" si="6">FIND("matchesCount",Json,J9)</f>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L22" si="7">FIND(",""",Json,K9)</f>
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25. syyskuuta</v>
+        <v>26 September</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24. syyskuuta</v>
+        <v>25 September</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23. syyskuuta</v>
+        <v>24 September</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -2988,41 +2795,41 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22. syyskuuta</v>
+        <v>23 September</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -3030,41 +2837,41 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>696</v>
+        <v>681</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21. syyskuuta</v>
+        <v>22 September</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -3072,41 +2879,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>851</v>
+        <v>833</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20. syyskuuta</v>
+        <v>21 September</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3114,41 +2921,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>934</v>
+        <v>916</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>960</v>
+        <v>941</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>990</v>
+        <v>968</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>992</v>
+        <v>970</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>1007</v>
+        <v>985</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19. syyskuuta</v>
+        <v>20 September</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3156,41 +2963,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1090</v>
+        <v>1068</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1116</v>
+        <v>1093</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1133</v>
+        <v>1107</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1146</v>
+        <v>1120</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1148</v>
+        <v>1122</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1163</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18. syyskuuta</v>
+        <v>19 September</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3198,41 +3005,41 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1247</v>
+        <v>1220</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1273</v>
+        <v>1245</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1290</v>
+        <v>1259</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1302</v>
+        <v>1272</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1304</v>
+        <v>1274</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1319</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17. syyskuuta</v>
+        <v>18 September</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3240,41 +3047,41 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1402</v>
+        <v>1373</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1428</v>
+        <v>1398</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1445</v>
+        <v>1412</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1458</v>
+        <v>1424</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1460</v>
+        <v>1426</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1475</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>16. syyskuuta</v>
+        <v>17 September</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3282,41 +3089,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1558</v>
+        <v>1524</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1584</v>
+        <v>1549</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1601</v>
+        <v>1563</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1614</v>
+        <v>1576</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1616</v>
+        <v>1578</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1631</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>15. syyskuuta</v>
+        <v>16 September</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3324,41 +3131,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1716</v>
+        <v>1676</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1742</v>
+        <v>1701</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1759</v>
+        <v>1715</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1772</v>
+        <v>1728</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1774</v>
+        <v>1730</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1789</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>14. syyskuuta</v>
+        <v>15 September</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3366,41 +3173,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1873</v>
+        <v>1830</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1899</v>
+        <v>1855</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1916</v>
+        <v>1869</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1928</v>
+        <v>1882</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1930</v>
+        <v>1884</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1945</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>13. syyskuuta</v>
+        <v>14 September</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3408,32 +3215,32 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>2029</v>
+        <v>1983</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>2055</v>
+        <v>2008</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>2072</v>
+        <v>2022</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2084</v>
+        <v>2034</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2086</v>
+        <v>2036</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2101</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="5">
         <v>44094</v>
@@ -3553,7 +3360,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="5">
         <v>44081</v>
@@ -3595,13 +3402,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B43" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44101.905417361108</v>
+        <v>44102.464776504632</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -3612,507 +3419,507 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B44" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B43)</f>
-        <v>44100</v>
+        <f t="shared" ref="B44:B65" ca="1" si="10">_xlfn.MAXIFS(time,time,"&lt;"&amp;B43)</f>
+        <v>44101</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:C79" ca="1" si="10">VLOOKUP(B44,data,2,FALSE)</f>
-        <v>242</v>
+        <f t="shared" ref="C44:C79" ca="1" si="11">VLOOKUP(B44,data,2,FALSE)</f>
+        <v>141</v>
       </c>
       <c r="D44">
-        <f t="shared" ref="D44:D56" ca="1" si="11">VLOOKUP(B44,data,3,FALSE)</f>
+        <f t="shared" ref="D44:D56" ca="1" si="12">VLOOKUP(B44,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B45" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B44)</f>
-        <v>44099</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44100</v>
       </c>
       <c r="C45">
-        <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>242</v>
       </c>
       <c r="D45">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B46" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B45)</f>
-        <v>44098</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44099</v>
       </c>
       <c r="C46">
-        <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>217</v>
       </c>
       <c r="D46">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B47" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B46)</f>
-        <v>44097</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44098</v>
       </c>
       <c r="C47">
-        <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>211</v>
       </c>
       <c r="D47">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B48" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B47)</f>
-        <v>44096</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44097</v>
       </c>
       <c r="C48">
-        <f t="shared" ca="1" si="10"/>
-        <v>311</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>189</v>
       </c>
       <c r="D48">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B49" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B48)</f>
-        <v>44095</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44096</v>
       </c>
       <c r="C49">
-        <f t="shared" ca="1" si="10"/>
-        <v>157</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>311</v>
       </c>
       <c r="D49">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B50" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B49)</f>
-        <v>44094</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44095</v>
       </c>
       <c r="C50">
-        <f t="shared" ca="1" si="10"/>
-        <v>202</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>157</v>
       </c>
       <c r="D50">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B51" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B50)</f>
-        <v>44093</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44094</v>
       </c>
       <c r="C51">
-        <f t="shared" ca="1" si="10"/>
-        <v>190</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>202</v>
       </c>
       <c r="D51">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B52" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B51)</f>
-        <v>44092</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44093</v>
       </c>
       <c r="C52">
-        <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>190</v>
       </c>
       <c r="D52">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B53" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B52)</f>
-        <v>44091</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44092</v>
       </c>
       <c r="C53">
-        <f t="shared" ca="1" si="10"/>
-        <v>137</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>82</v>
       </c>
       <c r="D53">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B54" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B53)</f>
-        <v>44090</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44091</v>
       </c>
       <c r="C54">
-        <f t="shared" ca="1" si="10"/>
-        <v>125</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>137</v>
       </c>
       <c r="D54">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B55" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B54)</f>
-        <v>44089</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44090</v>
       </c>
       <c r="C55">
-        <f t="shared" ca="1" si="10"/>
-        <v>136</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>125</v>
       </c>
       <c r="D55">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B56" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B55)</f>
-        <v>44088</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44089</v>
       </c>
       <c r="C56">
-        <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>136</v>
       </c>
       <c r="D56">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B57" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B56)</f>
-        <v>44087</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44088</v>
       </c>
       <c r="C57">
-        <f t="shared" ca="1" si="10"/>
-        <v>87</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>67</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57" ca="1" si="12">VLOOKUP(B57,data,3,FALSE)</f>
+        <f t="shared" ref="D57" ca="1" si="13">VLOOKUP(B57,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B58" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B57)</f>
-        <v>44086</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44087</v>
       </c>
       <c r="C58">
-        <f t="shared" ca="1" si="10"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>87</v>
       </c>
       <c r="D58">
-        <f t="shared" ref="D58:D64" ca="1" si="13">VLOOKUP(B58,data,3,FALSE)</f>
+        <f t="shared" ref="D58:D64" ca="1" si="14">VLOOKUP(B58,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B59" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B58)</f>
-        <v>44085</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44086</v>
       </c>
       <c r="C59">
-        <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>46</v>
       </c>
       <c r="D59">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B60" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B59)</f>
-        <v>44084</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44085</v>
       </c>
       <c r="C60">
-        <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
       </c>
       <c r="D60">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B61" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B60)</f>
-        <v>44083</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44084</v>
       </c>
       <c r="C61">
-        <f t="shared" ca="1" si="10"/>
-        <v>101</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>75</v>
       </c>
       <c r="D61">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B62" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B61)</f>
-        <v>44082</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44083</v>
       </c>
       <c r="C62">
-        <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>101</v>
       </c>
       <c r="D62">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B63" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B62)</f>
-        <v>44081</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44082</v>
       </c>
       <c r="C63">
-        <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>56</v>
       </c>
       <c r="D63">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B64" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B63)</f>
-        <v>44080</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44081</v>
       </c>
       <c r="C64">
-        <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45</v>
       </c>
       <c r="D64">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B65" s="3">
-        <f ca="1">_xlfn.MAXIFS(time,time,"&lt;"&amp;B64)</f>
-        <v>44078</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44080</v>
       </c>
       <c r="C65">
-        <f t="shared" ca="1" si="10"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
       </c>
       <c r="D65">
-        <f t="shared" ref="D65:D79" ca="1" si="14">VLOOKUP(B65,data,3,FALSE)</f>
+        <f t="shared" ref="D65:D79" ca="1" si="15">VLOOKUP(B65,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B66" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B65),1.8202)</f>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C66">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>15</v>
       </c>
       <c r="D66">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B67" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B66),44077)</f>
+        <f t="shared" ref="B67:B79" ca="1" si="16">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B66),44077)</f>
         <v>44077</v>
       </c>
       <c r="C67">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
       <c r="D67">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B68" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B67),44077)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
       <c r="C68">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
       <c r="D68">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B69" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B68),44077)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
       <c r="C69">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
       <c r="D69">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="7"/>
       <c r="B70" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B69),44077)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
       <c r="C70">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
       <c r="D70">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="3"/>
       <c r="B71" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B70),44077)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
       <c r="C71">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
       <c r="D71">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B72" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B71),44077)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
       <c r="C72">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
       <c r="D72">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B73" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B72),44077)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
       <c r="C73">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
       <c r="D73">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B74" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B73),44077)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
       <c r="C74">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
       <c r="D74">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B75" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B74),44077)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
       <c r="C75">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
       <c r="D75">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B76" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B75),44077)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
       <c r="C76">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
       <c r="D76">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B77" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B76),44077)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
       <c r="C77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
       <c r="D77">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B78" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B77),44077)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
       <c r="C78">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
       <c r="D78">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B79" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B78),44077)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
       <c r="C79">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5</v>
       </c>
       <c r="D79">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>

--- a/all-exposure-checks.xlsx
+++ b/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\ContactTracing-2020\GAEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB21955-3179-4830-8488-4139A8D3227F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B305FA1-7A6D-4E9A-8C64-EF54F16FFB90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <t>Export Android all-exposure-checks.json into A4</t>
   </si>
   <si>
-    <t>[{"timestamp":"27 September 2020, 08:05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 08:01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 08:00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 07:19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 07:15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 07:13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 07:11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20 September 2020, 11:09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="},{"timestamp":"19 September 2020, 10:50","keyCount":190,"matchesCount":0,"appName":"Koronavilkku","hash":"wQ25zYYr\/T3LDtbukS3OYyUSNBYzmsEMqI3tDEx+GdY="},{"timestamp":"18 September 2020, 10:37","keyCount":82,"matchesCount":0,"appName":"Koronavilkku","hash":"LxnzOI42gpmBHhNssMRQgJbJyyVz6j95FgbhcEhslFE="},{"timestamp":"17 September 2020, 10:36","keyCount":137,"matchesCount":0,"appName":"Koronavilkku","hash":"nPOu6VJOVmdCS0JgyedgK1KtW4rxnqzJUGhlNwGuOV4="},{"timestamp":"16 September 2020, 10:32","keyCount":125,"matchesCount":0,"appName":"Koronavilkku","hash":"L5x\/yuwZx1S3i2n0\/9FRe4HclDlgucBDfy5Or56ZchQ="},{"timestamp":"15 September 2020, 10:28","keyCount":136,"matchesCount":0,"appName":"Koronavilkku","hash":"op7f5yD\/eSrwkpUHdNNBhVmT48knZIc26Jzt8vGL3JA="},{"timestamp":"14 September 2020, 10:26","keyCount":67,"matchesCount":0,"appName":"Koronavilkku","hash":"vIEKsogtvkNLwDVfjkgES\/2vVVF0c16tzUm34F9Dse4="},{"timestamp":"13 September 2020, 10:22","keyCount":87,"matchesCount":0,"appName":"Koronavilkku","hash":"361cWfGKKo4KQRNrZy3CtjvAmySVn72Z3X1Sx903ClE="},{"timestamp":"12 September 2020, 10:14","keyCount":46,"matchesCount":0,"appName":"Koronavilkku","hash":"eHQdknWekwuG+QhjqWFwr6Y9WV2zzJsq\/GpWtMb64n4="},{"timestamp":"11 September 2020, 10:12","keyCount":70,"matchesCount":0,"appName":"Koronavilkku","hash":"Llwme0uzt1losTjyXkYelctwGHIM\/16sRNCj2n\/8+9I="}]</t>
+    <t>[{"timestamp":"28. syyskuuta 2020 klo 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27. syyskuuta 2020 klo 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26. syyskuuta 2020 klo 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25. syyskuuta 2020 klo 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24. syyskuuta 2020 klo 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23. syyskuuta 2020 klo 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22. syyskuuta 2020 klo 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21. syyskuuta 2020 klo 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20. syyskuuta 2020 klo 11.09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="},{"timestamp":"19. syyskuuta 2020 klo 10.50","keyCount":190,"matchesCount":0,"appName":"Koronavilkku","hash":"wQ25zYYr\/T3LDtbukS3OYyUSNBYzmsEMqI3tDEx+GdY="},{"timestamp":"18. syyskuuta 2020 klo 10.37","keyCount":82,"matchesCount":0,"appName":"Koronavilkku","hash":"LxnzOI42gpmBHhNssMRQgJbJyyVz6j95FgbhcEhslFE="},{"timestamp":"17. syyskuuta 2020 klo 10.36","keyCount":137,"matchesCount":0,"appName":"Koronavilkku","hash":"nPOu6VJOVmdCS0JgyedgK1KtW4rxnqzJUGhlNwGuOV4="},{"timestamp":"16. syyskuuta 2020 klo 10.32","keyCount":125,"matchesCount":0,"appName":"Koronavilkku","hash":"L5x\/yuwZx1S3i2n0\/9FRe4HclDlgucBDfy5Or56ZchQ="},{"timestamp":"15. syyskuuta 2020 klo 10.28","keyCount":136,"matchesCount":0,"appName":"Koronavilkku","hash":"op7f5yD\/eSrwkpUHdNNBhVmT48knZIc26Jzt8vGL3JA="},{"timestamp":"14. syyskuuta 2020 klo 10.26","keyCount":67,"matchesCount":0,"appName":"Koronavilkku","hash":"vIEKsogtvkNLwDVfjkgES\/2vVVF0c16tzUm34F9Dse4="},{"timestamp":"13. syyskuuta 2020 klo 10.22","keyCount":87,"matchesCount":0,"appName":"Koronavilkku","hash":"361cWfGKKo4KQRNrZy3CtjvAmySVn72Z3X1Sx903ClE="}]</t>
   </si>
 </sst>
 </file>
@@ -270,52 +270,109 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Android!$B$9:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>27 September</c:v>
+                  <c:v>28. syyskuuta</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26 September</c:v>
+                  <c:v>27. syyskuuta</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25 September</c:v>
+                  <c:v>26. syyskuuta</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24 September</c:v>
+                  <c:v>25. syyskuuta</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23 September</c:v>
+                  <c:v>24. syyskuuta</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22 September</c:v>
+                  <c:v>23. syyskuuta</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21 September</c:v>
+                  <c:v>22. syyskuuta</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20 September</c:v>
+                  <c:v>21. syyskuuta</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19 September</c:v>
+                  <c:v>20. syyskuuta</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18 September</c:v>
+                  <c:v>19. syyskuuta</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17 September</c:v>
+                  <c:v>18. syyskuuta</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16 September</c:v>
+                  <c:v>17. syyskuuta</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15 September</c:v>
+                  <c:v>16. syyskuuta</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14 September</c:v>
+                  <c:v>15. syyskuuta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -327,46 +384,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,76 +794,76 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44077</c:v>
@@ -854,76 +911,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5</c:v>
@@ -2606,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E4FBF2-530B-45FC-AB24-E83337470135}">
   <dimension ref="A2:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2653,15 +2710,15 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>27 September</v>
+        <v>28. syyskuuta</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -2673,37 +2730,37 @@
       </c>
       <c r="H9">
         <f t="shared" ref="H9:H22" si="3">FIND("2020",Json,G9)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I22" si="4">FIND("keyCount",Json,H9)</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9:J22" si="5">FIND(",""",Json,I9)</f>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K22" si="6">FIND("matchesCount",Json,J9)</f>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L22" si="7">FIND(",""",Json,K9)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26 September</v>
+        <v>27. syyskuuta</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -2711,125 +2768,125 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25 September</v>
+        <v>26. syyskuuta</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24 September</v>
+        <v>25. syyskuuta</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23 September</v>
+        <v>24. syyskuuta</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
@@ -2837,41 +2894,41 @@
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>681</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22 September</v>
+        <v>23. syyskuuta</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -2879,41 +2936,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>816</v>
+        <v>834</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>818</v>
+        <v>836</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>833</v>
+        <v>851</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21 September</v>
+        <v>22. syyskuuta</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -2921,41 +2978,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>916</v>
+        <v>934</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>941</v>
+        <v>960</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>955</v>
+        <v>976</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>968</v>
+        <v>989</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>970</v>
+        <v>991</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>985</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20 September</v>
+        <v>21. syyskuuta</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -2963,41 +3020,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1068</v>
+        <v>1089</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1093</v>
+        <v>1115</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1107</v>
+        <v>1131</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1120</v>
+        <v>1144</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1122</v>
+        <v>1146</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1137</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19 September</v>
+        <v>20. syyskuuta</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3005,41 +3062,41 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1220</v>
+        <v>1244</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1245</v>
+        <v>1270</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1259</v>
+        <v>1287</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1272</v>
+        <v>1300</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1274</v>
+        <v>1302</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1289</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18 September</v>
+        <v>19. syyskuuta</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3047,41 +3104,41 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1373</v>
+        <v>1400</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1398</v>
+        <v>1426</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1412</v>
+        <v>1443</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1424</v>
+        <v>1456</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1426</v>
+        <v>1458</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1441</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17 September</v>
+        <v>18. syyskuuta</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3089,41 +3146,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1524</v>
+        <v>1557</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1549</v>
+        <v>1583</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1563</v>
+        <v>1600</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1576</v>
+        <v>1612</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1578</v>
+        <v>1614</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1593</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>16 September</v>
+        <v>17. syyskuuta</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3131,41 +3188,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1676</v>
+        <v>1712</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1701</v>
+        <v>1738</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1715</v>
+        <v>1755</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1728</v>
+        <v>1768</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1730</v>
+        <v>1770</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1745</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>15 September</v>
+        <v>16. syyskuuta</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3173,41 +3230,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1830</v>
+        <v>1868</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1855</v>
+        <v>1894</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1869</v>
+        <v>1911</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1882</v>
+        <v>1924</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1884</v>
+        <v>1926</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1899</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>14 September</v>
+        <v>15. syyskuuta</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3215,27 +3272,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1983</v>
+        <v>2026</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>2008</v>
+        <v>2052</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>2022</v>
+        <v>2069</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2034</v>
+        <v>2082</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2036</v>
+        <v>2084</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2051</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
@@ -3408,7 +3465,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B43" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44102.464776504632</v>
+        <v>44103.484948379628</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -3420,11 +3477,11 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B44" s="3">
         <f t="shared" ref="B44:B65" ca="1" si="10">_xlfn.MAXIFS(time,time,"&lt;"&amp;B43)</f>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C44">
         <f t="shared" ref="C44:C79" ca="1" si="11">VLOOKUP(B44,data,2,FALSE)</f>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D44">
         <f t="shared" ref="D44:D56" ca="1" si="12">VLOOKUP(B44,data,3,FALSE)</f>
@@ -3434,11 +3491,11 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B45" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="11"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="12"/>
@@ -3448,39 +3505,39 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B46" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="11"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B47" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="11"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B48" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="11"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="12"/>
@@ -3490,11 +3547,11 @@
     <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B49" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="11"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="12"/>
@@ -3504,11 +3561,11 @@
     <row r="50" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B50" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="11"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="12"/>
@@ -3518,11 +3575,11 @@
     <row r="51" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B51" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="11"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="12"/>
@@ -3532,11 +3589,11 @@
     <row r="52" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B52" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="11"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="12"/>
@@ -3546,11 +3603,11 @@
     <row r="53" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B53" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="11"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="12"/>
@@ -3560,11 +3617,11 @@
     <row r="54" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B54" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="11"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="12"/>
@@ -3574,11 +3631,11 @@
     <row r="55" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B55" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="11"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="12"/>
@@ -3588,11 +3645,11 @@
     <row r="56" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B56" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="11"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="12"/>
@@ -3602,11 +3659,11 @@
     <row r="57" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B57" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D57">
         <f t="shared" ref="D57" ca="1" si="13">VLOOKUP(B57,data,3,FALSE)</f>
@@ -3616,11 +3673,11 @@
     <row r="58" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B58" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="11"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D58">
         <f t="shared" ref="D58:D64" ca="1" si="14">VLOOKUP(B58,data,3,FALSE)</f>
@@ -3630,11 +3687,11 @@
     <row r="59" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B59" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="14"/>
@@ -3644,11 +3701,11 @@
     <row r="60" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B60" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="14"/>
@@ -3658,11 +3715,11 @@
     <row r="61" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B61" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="11"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="14"/>
@@ -3672,11 +3729,11 @@
     <row r="62" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B62" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="11"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="14"/>
@@ -3686,11 +3743,11 @@
     <row r="63" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B63" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="14"/>
@@ -3700,11 +3757,11 @@
     <row r="64" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B64" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="11"/>
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="14"/>
@@ -3714,11 +3771,11 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B65" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D65">
         <f t="shared" ref="D65:D79" ca="1" si="15">VLOOKUP(B65,data,3,FALSE)</f>
@@ -3728,11 +3785,11 @@
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B66" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B65),1.8202)</f>
-        <v>44078</v>
+        <v>44080</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="15"/>
@@ -3742,11 +3799,11 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B67" s="3">
         <f t="shared" ref="B67:B79" ca="1" si="16">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B66),44077)</f>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="15"/>

--- a/all-exposure-checks.xlsx
+++ b/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\ContactTracing-2020\GAEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B305FA1-7A6D-4E9A-8C64-EF54F16FFB90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF43FC1-A652-48FB-AB56-4F2BFC0EC943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Android" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="data">Android!$C$9:$E$39</definedName>
+    <definedName name="data">Android!$C$9:$E$40</definedName>
     <definedName name="Json">Android!$A$4</definedName>
-    <definedName name="time">Android!$C$9:$C$39</definedName>
+    <definedName name="time">Android!$C$9:$C$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,9 +53,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>Time column is currently supported for UK ENG and FIN until end of 2020</t>
-  </si>
-  <si>
     <t>Sorted entries if time correct</t>
   </si>
   <si>
@@ -68,7 +65,10 @@
     <t>Export Android all-exposure-checks.json into A4</t>
   </si>
   <si>
-    <t>[{"timestamp":"28. syyskuuta 2020 klo 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27. syyskuuta 2020 klo 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26. syyskuuta 2020 klo 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25. syyskuuta 2020 klo 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24. syyskuuta 2020 klo 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23. syyskuuta 2020 klo 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22. syyskuuta 2020 klo 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21. syyskuuta 2020 klo 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20. syyskuuta 2020 klo 11.09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="},{"timestamp":"19. syyskuuta 2020 klo 10.50","keyCount":190,"matchesCount":0,"appName":"Koronavilkku","hash":"wQ25zYYr\/T3LDtbukS3OYyUSNBYzmsEMqI3tDEx+GdY="},{"timestamp":"18. syyskuuta 2020 klo 10.37","keyCount":82,"matchesCount":0,"appName":"Koronavilkku","hash":"LxnzOI42gpmBHhNssMRQgJbJyyVz6j95FgbhcEhslFE="},{"timestamp":"17. syyskuuta 2020 klo 10.36","keyCount":137,"matchesCount":0,"appName":"Koronavilkku","hash":"nPOu6VJOVmdCS0JgyedgK1KtW4rxnqzJUGhlNwGuOV4="},{"timestamp":"16. syyskuuta 2020 klo 10.32","keyCount":125,"matchesCount":0,"appName":"Koronavilkku","hash":"L5x\/yuwZx1S3i2n0\/9FRe4HclDlgucBDfy5Or56ZchQ="},{"timestamp":"15. syyskuuta 2020 klo 10.28","keyCount":136,"matchesCount":0,"appName":"Koronavilkku","hash":"op7f5yD\/eSrwkpUHdNNBhVmT48knZIc26Jzt8vGL3JA="},{"timestamp":"14. syyskuuta 2020 klo 10.26","keyCount":67,"matchesCount":0,"appName":"Koronavilkku","hash":"vIEKsogtvkNLwDVfjkgES\/2vVVF0c16tzUm34F9Dse4="},{"timestamp":"13. syyskuuta 2020 klo 10.22","keyCount":87,"matchesCount":0,"appName":"Koronavilkku","hash":"361cWfGKKo4KQRNrZy3CtjvAmySVn72Z3X1Sx903ClE="}]</t>
+    <t>Time column is currently supported for ENG (FIN/UK), SWE (FIN) and FIN until end of 2020</t>
+  </si>
+  <si>
+    <t>[{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20 September 2020, 11.09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="},{"timestamp":"19 September 2020, 10.50","keyCount":190,"matchesCount":0,"appName":"Koronavilkku","hash":"wQ25zYYr\/T3LDtbukS3OYyUSNBYzmsEMqI3tDEx+GdY="},{"timestamp":"18 September 2020, 10.37","keyCount":82,"matchesCount":0,"appName":"Koronavilkku","hash":"LxnzOI42gpmBHhNssMRQgJbJyyVz6j95FgbhcEhslFE="},{"timestamp":"17 September 2020, 10.36","keyCount":137,"matchesCount":0,"appName":"Koronavilkku","hash":"nPOu6VJOVmdCS0JgyedgK1KtW4rxnqzJUGhlNwGuOV4="},{"timestamp":"16 September 2020, 10.32","keyCount":125,"matchesCount":0,"appName":"Koronavilkku","hash":"L5x\/yuwZx1S3i2n0\/9FRe4HclDlgucBDfy5Or56ZchQ="},{"timestamp":"15 September 2020, 10.28","keyCount":136,"matchesCount":0,"appName":"Koronavilkku","hash":"op7f5yD\/eSrwkpUHdNNBhVmT48knZIc26Jzt8vGL3JA="},{"timestamp":"14 September 2020, 10.26","keyCount":67,"matchesCount":0,"appName":"Koronavilkku","hash":"vIEKsogtvkNLwDVfjkgES\/2vVVF0c16tzUm34F9Dse4="},{"timestamp":"13 September 2020, 10.22","keyCount":87,"matchesCount":0,"appName":"Koronavilkku","hash":"361cWfGKKo4KQRNrZy3CtjvAmySVn72Z3X1Sx903ClE="}]</t>
   </si>
 </sst>
 </file>
@@ -333,46 +333,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>28. syyskuuta</c:v>
+                  <c:v>29 September</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27. syyskuuta</c:v>
+                  <c:v>28 September</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26. syyskuuta</c:v>
+                  <c:v>27 September</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25. syyskuuta</c:v>
+                  <c:v>26 September</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24. syyskuuta</c:v>
+                  <c:v>25 September</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23. syyskuuta</c:v>
+                  <c:v>24 September</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22. syyskuuta</c:v>
+                  <c:v>23 September</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21. syyskuuta</c:v>
+                  <c:v>22 September</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20. syyskuuta</c:v>
+                  <c:v>21 September</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19. syyskuuta</c:v>
+                  <c:v>20 September</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18. syyskuuta</c:v>
+                  <c:v>19 September</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17. syyskuuta</c:v>
+                  <c:v>18 September</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16. syyskuuta</c:v>
+                  <c:v>17 September</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15. syyskuuta</c:v>
+                  <c:v>16 September</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -384,46 +384,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,8 +650,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22917176900299105"/>
-          <c:y val="3.2589121042282905E-2"/>
+          <c:x val="0.2637030722424048"/>
+          <c:y val="1.2031017221777669E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -685,7 +685,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.6945700132268625E-2"/>
+          <c:y val="9.9672043222523363E-2"/>
+          <c:w val="0.95771026668114068"/>
+          <c:h val="0.82084295359665205"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -717,6 +727,146 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3154804339117405E-2"/>
+                  <c:y val="-4.1116002704375529E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6A63-4EE2-978B-C9CA1BC14A10}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.8660385161277279E-3"/>
+                  <c:y val="-3.7689534250655583E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.3084332912880231E-2"/>
+                      <c:h val="4.7917409713412823E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6A63-4EE2-978B-C9CA1BC14A10}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1510453796727717E-2"/>
+                  <c:y val="5.1395003380469248E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-6A63-4EE2-978B-C9CA1BC14A10}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.3984334910885651E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-DBE4-4ABA-BFCD-3E46E83529D4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8087855966286533E-2"/>
+                  <c:y val="-4.1116002704375404E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-6A63-4EE2-978B-C9CA1BC14A10}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5702108014182953E-2"/>
+                  <c:y val="-5.4821336939167201E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DBE4-4ABA-BFCD-3E46E83529D4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -789,87 +939,87 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Android!$B$44:$B$79</c:f>
+              <c:f>Android!$B$45:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44077</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44077</c:v>
@@ -906,117 +1056,117 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Android!$C$44:$C$79</c:f>
+              <c:f>Android!$C$45:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>45</c:v>
-                </c:pt>
                 <c:pt idx="22">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2328,14 +2478,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:colOff>348342</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>81644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>522514</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>87087</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2661,11 +2811,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E4FBF2-530B-45FC-AB24-E83337470135}">
-  <dimension ref="A2:L79"/>
+  <dimension ref="A2:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2676,7 +2824,7 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2687,7 +2835,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
@@ -2710,15 +2858,15 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>28. syyskuuta</v>
+        <v>29 September</v>
       </c>
       <c r="C9" s="5">
-        <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44102</v>
+        <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
+        <v>44103</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -2730,37 +2878,37 @@
       </c>
       <c r="H9">
         <f t="shared" ref="H9:H22" si="3">FIND("2020",Json,G9)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I22" si="4">FIND("keyCount",Json,H9)</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9:J22" si="5">FIND(",""",Json,I9)</f>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K22" si="6">FIND("matchesCount",Json,J9)</f>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L22" si="7">FIND(",""",Json,K9)</f>
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>27. syyskuuta</v>
+        <v>28 September</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44101</v>
+        <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
+        <v>44102</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -2768,41 +2916,41 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26. syyskuuta</v>
+        <v>27 September</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -2810,125 +2958,125 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25. syyskuuta</v>
+        <v>26 September</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24. syyskuuta</v>
+        <v>25 September</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>696</v>
+        <v>676</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23. syyskuuta</v>
+        <v>24 September</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
@@ -2936,41 +3084,41 @@
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>821</v>
+        <v>797</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>834</v>
+        <v>810</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>851</v>
+        <v>827</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22. syyskuuta</v>
+        <v>23 September</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -2978,41 +3126,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>934</v>
+        <v>910</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>960</v>
+        <v>935</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>976</v>
+        <v>948</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>989</v>
+        <v>961</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>991</v>
+        <v>963</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>1006</v>
+        <v>978</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21. syyskuuta</v>
+        <v>22 September</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3020,41 +3168,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1089</v>
+        <v>1061</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1115</v>
+        <v>1086</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1131</v>
+        <v>1099</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1144</v>
+        <v>1112</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1146</v>
+        <v>1114</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1161</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20. syyskuuta</v>
+        <v>21 September</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3062,41 +3210,41 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1244</v>
+        <v>1212</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1270</v>
+        <v>1237</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1287</v>
+        <v>1250</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1300</v>
+        <v>1263</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1302</v>
+        <v>1265</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1317</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19. syyskuuta</v>
+        <v>20 September</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3104,41 +3252,41 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1400</v>
+        <v>1363</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1426</v>
+        <v>1388</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1443</v>
+        <v>1402</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1456</v>
+        <v>1415</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1458</v>
+        <v>1417</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1473</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18. syyskuuta</v>
+        <v>19 September</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3146,41 +3294,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1557</v>
+        <v>1515</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1583</v>
+        <v>1540</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1600</v>
+        <v>1554</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1612</v>
+        <v>1567</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1614</v>
+        <v>1569</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1629</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17. syyskuuta</v>
+        <v>18 September</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3188,41 +3336,41 @@
       </c>
       <c r="G20">
         <f t="shared" si="9"/>
-        <v>1712</v>
+        <v>1668</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1738</v>
+        <v>1693</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>1755</v>
+        <v>1707</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1768</v>
+        <v>1719</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1770</v>
+        <v>1721</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1785</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>16. syyskuuta</v>
+        <v>17 September</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3230,41 +3378,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1868</v>
+        <v>1819</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1894</v>
+        <v>1844</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1911</v>
+        <v>1858</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1924</v>
+        <v>1871</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1926</v>
+        <v>1873</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1941</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>15. syyskuuta</v>
+        <v>16 September</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3272,32 +3420,32 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>2026</v>
+        <v>1971</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>2052</v>
+        <v>1996</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>2069</v>
+        <v>2010</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2082</v>
+        <v>2023</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2084</v>
+        <v>2025</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2099</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="5">
         <v>44094</v>
@@ -3417,13 +3565,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" s="5">
         <v>44081</v>
       </c>
       <c r="D36" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -3438,7 +3586,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C38" s="5">
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="D38" s="2">
         <v>15</v>
@@ -3447,69 +3595,64 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C39" s="5">
+        <v>44078</v>
+      </c>
+      <c r="D39" s="2">
+        <v>19</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C40" s="5">
         <v>44077</v>
       </c>
-      <c r="D39" s="2">
-        <v>5</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C40"/>
+      <c r="D40" s="2">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="3">
-        <f ca="1">NOW()+1</f>
-        <v>44103.484948379628</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>2</v>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B44" s="3">
-        <f t="shared" ref="B44:B65" ca="1" si="10">_xlfn.MAXIFS(time,time,"&lt;"&amp;B43)</f>
-        <v>44102</v>
-      </c>
-      <c r="C44">
-        <f t="shared" ref="C44:C79" ca="1" si="11">VLOOKUP(B44,data,2,FALSE)</f>
-        <v>199</v>
-      </c>
-      <c r="D44">
-        <f t="shared" ref="D44:D56" ca="1" si="12">VLOOKUP(B44,data,3,FALSE)</f>
-        <v>0</v>
+        <f ca="1">NOW()+1</f>
+        <v>44104.525575810185</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B45" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>44101</v>
+        <f t="shared" ref="B45:B66" ca="1" si="10">_xlfn.MAXIFS(time,time,"&lt;"&amp;B44)</f>
+        <v>44103</v>
       </c>
       <c r="C45">
-        <f t="shared" ca="1" si="11"/>
-        <v>141</v>
+        <f t="shared" ref="C45:C80" ca="1" si="11">VLOOKUP(B45,data,2,FALSE)</f>
+        <v>238</v>
       </c>
       <c r="D45">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="D45:D57" ca="1" si="12">VLOOKUP(B45,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B46" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44100</v>
+        <v>44102</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="11"/>
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="12"/>
@@ -3519,25 +3662,25 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B47" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44099</v>
+        <v>44101</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="11"/>
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B48" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44098</v>
+        <v>44100</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="11"/>
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="12"/>
@@ -3547,25 +3690,25 @@
     <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B49" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44097</v>
+        <v>44099</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="11"/>
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B50" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44096</v>
+        <v>44098</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="11"/>
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="12"/>
@@ -3575,11 +3718,11 @@
     <row r="51" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B51" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44095</v>
+        <v>44097</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="11"/>
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="12"/>
@@ -3589,11 +3732,11 @@
     <row r="52" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B52" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44094</v>
+        <v>44096</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="11"/>
-        <v>202</v>
+        <v>311</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="12"/>
@@ -3603,11 +3746,11 @@
     <row r="53" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B53" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44093</v>
+        <v>44095</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="11"/>
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="12"/>
@@ -3617,11 +3760,11 @@
     <row r="54" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B54" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44092</v>
+        <v>44094</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="11"/>
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="12"/>
@@ -3631,11 +3774,11 @@
     <row r="55" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B55" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44091</v>
+        <v>44093</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="11"/>
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="12"/>
@@ -3645,11 +3788,11 @@
     <row r="56" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B56" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44090</v>
+        <v>44092</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="11"/>
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="12"/>
@@ -3659,53 +3802,53 @@
     <row r="57" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B57" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44089</v>
+        <v>44091</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="11"/>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57" ca="1" si="13">VLOOKUP(B57,data,3,FALSE)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B58" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="D58">
-        <f t="shared" ref="D58:D64" ca="1" si="14">VLOOKUP(B58,data,3,FALSE)</f>
+        <f t="shared" ref="D58" ca="1" si="13">VLOOKUP(B58,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B59" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44087</v>
+        <v>44089</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="11"/>
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="D59">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="D59:D65" ca="1" si="14">VLOOKUP(B59,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B60" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44086</v>
+        <v>44088</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="14"/>
@@ -3715,11 +3858,11 @@
     <row r="61" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B61" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44085</v>
+        <v>44087</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="14"/>
@@ -3729,11 +3872,11 @@
     <row r="62" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B62" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44084</v>
+        <v>44086</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="11"/>
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="14"/>
@@ -3743,11 +3886,11 @@
     <row r="63" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B63" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="11"/>
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="14"/>
@@ -3757,11 +3900,11 @@
     <row r="64" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B64" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44082</v>
+        <v>44084</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="14"/>
@@ -3771,39 +3914,39 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B65" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44081</v>
+        <v>44083</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="11"/>
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D65">
-        <f t="shared" ref="D65:D79" ca="1" si="15">VLOOKUP(B65,data,3,FALSE)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B66" s="3">
-        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B65),1.8202)</f>
-        <v>44080</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44082</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D66">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="D66:D80" ca="1" si="15">VLOOKUP(B66,data,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B67" s="3">
-        <f t="shared" ref="B67:B79" ca="1" si="16">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B66),44077)</f>
-        <v>44078</v>
+        <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B66),1.8202)</f>
+        <v>44081</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="15"/>
@@ -3812,12 +3955,12 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B68" s="3">
-        <f t="shared" ca="1" si="16"/>
-        <v>44077</v>
+        <f t="shared" ref="B68:B80" ca="1" si="16">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B67),44077)</f>
+        <v>44080</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="15"/>
@@ -3827,11 +3970,11 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B69" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44077</v>
+        <v>44079</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="15"/>
@@ -3839,14 +3982,13 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" s="7"/>
       <c r="B70" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="15"/>
@@ -3854,14 +3996,14 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" s="3"/>
+      <c r="A71" s="7"/>
       <c r="B71" s="3">
         <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="15"/>
@@ -3869,13 +4011,14 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="3"/>
       <c r="B72" s="3">
         <f t="shared" ca="1" si="16"/>
         <v>44077</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="15"/>
@@ -3889,7 +4032,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="15"/>
@@ -3903,7 +4046,7 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="15"/>
@@ -3917,7 +4060,7 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="15"/>
@@ -3931,7 +4074,7 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="15"/>
@@ -3945,7 +4088,7 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="15"/>
@@ -3959,7 +4102,7 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="15"/>
@@ -3973,9 +4116,23 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D79">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B80" s="3">
+        <f t="shared" ca="1" si="16"/>
+        <v>44077</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="D80">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>

--- a/all-exposure-checks.xlsx
+++ b/all-exposure-checks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jussi\OneDrive\Projects\ContactTracing-2020\GAEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF43FC1-A652-48FB-AB56-4F2BFC0EC943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA22D831-4486-4E30-BC93-F9AC3ABBEB75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="831" yWindow="-103" windowWidth="21215" windowHeight="12549" xr2:uid="{C8451757-F61A-4204-92A2-683EE66AFF0A}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <t>Time column is currently supported for ENG (FIN/UK), SWE (FIN) and FIN until end of 2020</t>
   </si>
   <si>
-    <t>[{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20 September 2020, 11.09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="},{"timestamp":"19 September 2020, 10.50","keyCount":190,"matchesCount":0,"appName":"Koronavilkku","hash":"wQ25zYYr\/T3LDtbukS3OYyUSNBYzmsEMqI3tDEx+GdY="},{"timestamp":"18 September 2020, 10.37","keyCount":82,"matchesCount":0,"appName":"Koronavilkku","hash":"LxnzOI42gpmBHhNssMRQgJbJyyVz6j95FgbhcEhslFE="},{"timestamp":"17 September 2020, 10.36","keyCount":137,"matchesCount":0,"appName":"Koronavilkku","hash":"nPOu6VJOVmdCS0JgyedgK1KtW4rxnqzJUGhlNwGuOV4="},{"timestamp":"16 September 2020, 10.32","keyCount":125,"matchesCount":0,"appName":"Koronavilkku","hash":"L5x\/yuwZx1S3i2n0\/9FRe4HclDlgucBDfy5Or56ZchQ="},{"timestamp":"15 September 2020, 10.28","keyCount":136,"matchesCount":0,"appName":"Koronavilkku","hash":"op7f5yD\/eSrwkpUHdNNBhVmT48knZIc26Jzt8vGL3JA="},{"timestamp":"14 September 2020, 10.26","keyCount":67,"matchesCount":0,"appName":"Koronavilkku","hash":"vIEKsogtvkNLwDVfjkgES\/2vVVF0c16tzUm34F9Dse4="},{"timestamp":"13 September 2020, 10.22","keyCount":87,"matchesCount":0,"appName":"Koronavilkku","hash":"361cWfGKKo4KQRNrZy3CtjvAmySVn72Z3X1Sx903ClE="}]</t>
+    <t>[{"timestamp":"30 September 2020, 8.52","keyCount":318,"matchesCount":0,"appName":"Koronavilkku","hash":"L\/VJRgfcQoXAEqA7YqpW4JjXXUm4qTk2ETXOxXI\/C0A="},{"timestamp":"29 September 2020, 8.09","keyCount":238,"matchesCount":0,"appName":"Koronavilkku","hash":"buIXTow1ZHDIVMQhEmgOqDBqbydn03Gm8NGhy6i41Tc="},{"timestamp":"28 September 2020, 8.07","keyCount":199,"matchesCount":0,"appName":"Koronavilkku","hash":"goyTayM0mYovHuxJ0OSDqmm+oB3bTRmYvy9uWbmVrjQ="},{"timestamp":"27 September 2020, 8.05","keyCount":141,"matchesCount":0,"appName":"Koronavilkku","hash":"bfObmmKf4yYCy3kecvhRL4d57FZ8UxUfFlrfWq7YzLg="},{"timestamp":"26 September 2020, 8.01","keyCount":242,"matchesCount":0,"appName":"Koronavilkku","hash":"AP5aEpXLoQlr0QmfeoIh4FHy01c+H5xDR4JCbPprdPc="},{"timestamp":"25 September 2020, 8.00","keyCount":217,"matchesCount":1,"appName":"Koronavilkku","hash":"nLBOmHqB7xON3sOJLjm86EVtaADO9z8MqVcA8r3v4t8="},{"timestamp":"24 September 2020, 7.19","keyCount":211,"matchesCount":0,"appName":"Koronavilkku","hash":"XlRtacwf5zNbpVVHoSKu4IDF9qs1Wh6PipZr1sPMn+E="},{"timestamp":"23 September 2020, 7.15","keyCount":189,"matchesCount":0,"appName":"Koronavilkku","hash":"XraKuKwjDha2BdTzS3+Xm08W+39n7AwLVWCl6VKlkHM="},{"timestamp":"22 September 2020, 7.13","keyCount":311,"matchesCount":0,"appName":"Koronavilkku","hash":"cg00ZNzVnYnP9YAuDqm5ML6GrpkFfkESOfEZPrL6R1c="},{"timestamp":"21 September 2020, 7.11","keyCount":157,"matchesCount":0,"appName":"Koronavilkku","hash":"eiScOGMBbruz9+mpIa4JU4R5C1NlJKl+7o3xWmhO7jw="},{"timestamp":"20 September 2020, 11.09","keyCount":202,"matchesCount":0,"appName":"Koronavilkku","hash":"AT2kruWiYpVjiscFZlBLAG6pFxBrAq3cpo0ZIHpx2uM="},{"timestamp":"19 September 2020, 10.50","keyCount":190,"matchesCount":0,"appName":"Koronavilkku","hash":"wQ25zYYr\/T3LDtbukS3OYyUSNBYzmsEMqI3tDEx+GdY="},{"timestamp":"18 September 2020, 10.37","keyCount":82,"matchesCount":0,"appName":"Koronavilkku","hash":"LxnzOI42gpmBHhNssMRQgJbJyyVz6j95FgbhcEhslFE="},{"timestamp":"17 September 2020, 10.36","keyCount":137,"matchesCount":0,"appName":"Koronavilkku","hash":"nPOu6VJOVmdCS0JgyedgK1KtW4rxnqzJUGhlNwGuOV4="},{"timestamp":"16 September 2020, 10.32","keyCount":125,"matchesCount":0,"appName":"Koronavilkku","hash":"L5x\/yuwZx1S3i2n0\/9FRe4HclDlgucBDfy5Or56ZchQ="},{"timestamp":"15 September 2020, 10.28","keyCount":136,"matchesCount":0,"appName":"Koronavilkku","hash":"op7f5yD\/eSrwkpUHdNNBhVmT48knZIc26Jzt8vGL3JA="},{"timestamp":"14 September 2020, 10.26","keyCount":67,"matchesCount":0,"appName":"Koronavilkku","hash":"vIEKsogtvkNLwDVfjkgES\/2vVVF0c16tzUm34F9Dse4="},{"timestamp":"13 September 2020, 10.22","keyCount":87,"matchesCount":0,"appName":"Koronavilkku","hash":"361cWfGKKo4KQRNrZy3CtjvAmySVn72Z3X1Sx903ClE="}]</t>
   </si>
 </sst>
 </file>
@@ -333,46 +333,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>30 September</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>29 September</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>28 September</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>27 September</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>26 September</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25 September</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>24 September</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>23 September</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>22 September</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>21 September</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>20 September</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>19 September</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>18 September</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>17 September</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16 September</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -384,46 +384,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -728,7 +728,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
@@ -944,85 +944,85 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44103</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>44101</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>44100</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44099</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>44098</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44097</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44096</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>44094</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>44093</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44092</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44091</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44090</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44089</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44088</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44087</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44086</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44085</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44084</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44083</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>44080</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44079</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44078</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44077</c:v>
@@ -1061,85 +1061,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>6</c:v>
@@ -2858,15 +2858,15 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B22" si="0">MID(Json,G9+12,H9-G9-13)</f>
-        <v>29 September</v>
+        <v>30 September</v>
       </c>
       <c r="C9" s="5">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="1">VALUE(MID(Json,I9+10,J9-I9-10))</f>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="2">VALUE(MID(Json,K9+14,L9-J9-16))</f>
@@ -2900,15 +2900,15 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>28 September</v>
+        <v>29 September</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:C22" si="8">DATEVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,CHAR(160),""),"september",".9.2020"),"oktober",".10.2020"),"november",".11.2020"),"december",".12.2020"),"September",".9.2020"),"October",".10.2020"),"November",".11.2020"),"December",".12.2020"),"syyskuuta","9.2020"),"lokakuuta","10.2020"),"marraskuuta","11.2020"),"joulukuuta","12.2020"))</f>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -2916,41 +2916,41 @@
       </c>
       <c r="G10">
         <f>FIND("timestamp",Json,L9)</f>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L10">
         <f t="shared" si="7"/>
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>27 September</v>
+        <v>28 September</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="8"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -2958,41 +2958,41 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G22" si="9">FIND("timestamp",Json,H10)</f>
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L11">
         <f t="shared" si="7"/>
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>26 September</v>
+        <v>27 September</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="8"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -3000,125 +3000,125 @@
       </c>
       <c r="G12">
         <f t="shared" si="9"/>
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L12">
         <f t="shared" si="7"/>
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>25 September</v>
+        <v>26 September</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="8"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <f t="shared" si="9"/>
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>24 September</v>
+        <v>25 September</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="8"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="9"/>
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>23 September</v>
+        <v>24 September</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="8"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -3126,41 +3126,41 @@
       </c>
       <c r="G15">
         <f t="shared" si="9"/>
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>22 September</v>
+        <v>23 September</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="8"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
@@ -3168,41 +3168,41 @@
       </c>
       <c r="G16">
         <f t="shared" si="9"/>
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>21 September</v>
+        <v>22 September</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="8"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
@@ -3210,41 +3210,41 @@
       </c>
       <c r="G17">
         <f t="shared" si="9"/>
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>1280</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>20 September</v>
+        <v>21 September</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="8"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="2"/>
@@ -3252,41 +3252,41 @@
       </c>
       <c r="G18">
         <f t="shared" si="9"/>
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>19 September</v>
+        <v>20 September</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="8"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -3294,41 +3294,41 @@
       </c>
       <c r="G19">
         <f t="shared" si="9"/>
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18 September</v>
+        <v>19 September</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="8"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
@@ -3348,29 +3348,29 @@
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>17 September</v>
+        <v>18 September</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="8"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="2"/>
@@ -3378,41 +3378,41 @@
       </c>
       <c r="G21">
         <f t="shared" si="9"/>
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>16 September</v>
+        <v>17 September</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="8"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="2"/>
@@ -3420,27 +3420,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="9"/>
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>2040</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
@@ -3622,7 +3622,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B44" s="3">
         <f ca="1">NOW()+1</f>
-        <v>44104.525575810185</v>
+        <v>44105.399724189818</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -3634,11 +3634,11 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B45" s="3">
         <f t="shared" ref="B45:B66" ca="1" si="10">_xlfn.MAXIFS(time,time,"&lt;"&amp;B44)</f>
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="C45">
         <f t="shared" ref="C45:C80" ca="1" si="11">VLOOKUP(B45,data,2,FALSE)</f>
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D45">
         <f t="shared" ref="D45:D57" ca="1" si="12">VLOOKUP(B45,data,3,FALSE)</f>
@@ -3648,11 +3648,11 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B46" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="11"/>
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="12"/>
@@ -3662,11 +3662,11 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B47" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="11"/>
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="12"/>
@@ -3676,11 +3676,11 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B48" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="11"/>
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="12"/>
@@ -3690,39 +3690,39 @@
     <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B49" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44099</v>
+        <v>44100</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="11"/>
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B50" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="11"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B51" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="11"/>
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="12"/>
@@ -3732,11 +3732,11 @@
     <row r="52" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B52" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="11"/>
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="12"/>
@@ -3746,11 +3746,11 @@
     <row r="53" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B53" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="11"/>
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="12"/>
@@ -3760,11 +3760,11 @@
     <row r="54" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B54" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="11"/>
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="12"/>
@@ -3774,11 +3774,11 @@
     <row r="55" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B55" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="11"/>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="12"/>
@@ -3788,11 +3788,11 @@
     <row r="56" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B56" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="11"/>
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="12"/>
@@ -3802,11 +3802,11 @@
     <row r="57" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B57" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="11"/>
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="12"/>
@@ -3816,11 +3816,11 @@
     <row r="58" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B58" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="11"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D58">
         <f t="shared" ref="D58" ca="1" si="13">VLOOKUP(B58,data,3,FALSE)</f>
@@ -3830,11 +3830,11 @@
     <row r="59" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B59" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="11"/>
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D59">
         <f t="shared" ref="D59:D65" ca="1" si="14">VLOOKUP(B59,data,3,FALSE)</f>
@@ -3844,11 +3844,11 @@
     <row r="60" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B60" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="14"/>
@@ -3858,11 +3858,11 @@
     <row r="61" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B61" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44087</v>
+        <v>44088</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="11"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="14"/>
@@ -3872,11 +3872,11 @@
     <row r="62" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B62" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44086</v>
+        <v>44087</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="14"/>
@@ -3886,11 +3886,11 @@
     <row r="63" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B63" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44085</v>
+        <v>44086</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="14"/>
@@ -3900,11 +3900,11 @@
     <row r="64" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B64" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="11"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="14"/>
@@ -3914,11 +3914,11 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B65" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="11"/>
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="14"/>
@@ -3928,11 +3928,11 @@
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B66" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D66">
         <f t="shared" ref="D66:D80" ca="1" si="15">VLOOKUP(B66,data,3,FALSE)</f>
@@ -3942,11 +3942,11 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B67" s="3">
         <f ca="1">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B66),1.8202)</f>
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="11"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="15"/>
@@ -3956,11 +3956,11 @@
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B68" s="3">
         <f t="shared" ref="B68:B80" ca="1" si="16">MAX(_xlfn.MAXIFS(time,time,"&lt;"&amp;B67),44077)</f>
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="15"/>
@@ -3970,11 +3970,11 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B69" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="15"/>
@@ -3984,11 +3984,11 @@
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B70" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="15"/>
@@ -3999,11 +3999,11 @@
       <c r="A71" s="7"/>
       <c r="B71" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="15"/>
